--- a/biology/Botanique/Jardin_botanique_et_musée_botanique_de_Berlin-Dahlem/Jardin_botanique_et_musée_botanique_de_Berlin-Dahlem.xlsx
+++ b/biology/Botanique/Jardin_botanique_et_musée_botanique_de_Berlin-Dahlem/Jardin_botanique_et_musée_botanique_de_Berlin-Dahlem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_botanique_et_mus%C3%A9e_botanique_de_Berlin-Dahlem</t>
+          <t>Jardin_botanique_et_musée_botanique_de_Berlin-Dahlem</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin botanique et musée botanique de Berlin-Dahlem (Botanischer Garten und Botanisches Museum Berlin-Dahlem) est une institution scientifique qui dépend de l'Université libre de Berlin. Elle comprend un jardin botanique, qui occupe une superficie de plus de 43 hectares et compte plus de 22 000 espèces de plantes différentes ; ce jardin botanique  est l'un des plus importants d'Europe et du monde. À côté du jardin, se trouve le Musée botanique qui comprend une collection de plantes séchées en herbier, l'important Herbarium Berolinense et une bibliothèque spécialisée.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_botanique_et_mus%C3%A9e_botanique_de_Berlin-Dahlem</t>
+          <t>Jardin_botanique_et_musée_botanique_de_Berlin-Dahlem</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En réalité, le jardin botanique n'est pas situé à Berlin-Dahlem mais à Berlin-Lichterfelde. Son nom provient du fait qu'il faisait partie du domaine seigneurial (Rittergut) de Dahlem.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_botanique_et_mus%C3%A9e_botanique_de_Berlin-Dahlem</t>
+          <t>Jardin_botanique_et_musée_botanique_de_Berlin-Dahlem</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fut créé entre 1897 et  1910, sous la direction d'Adolf Engler, avec l'objectif d'étudier les plantes des colonies allemandes. À cet effet furent construites en 1907 les énormes serres de 25 m de haut qui, jusqu'à la fin des années cinquante, nécessitaient environ 1 500 tonnes de charbon annuellement pour leur chauffage. Le jardin fut construit pour remédier au manque de place de l'ancien site, près du jardin agricole Kleistpark construit en 1679.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jardin_botanique_et_mus%C3%A9e_botanique_de_Berlin-Dahlem</t>
+          <t>Jardin_botanique_et_musée_botanique_de_Berlin-Dahlem</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin dispose de la plus grande serre du monde, la Große Tropenhaus, de 25 m de haut, 30 de large et 60 de long, dont les premiers plans furent dessinés par Carl David Bouché.
 À l'intérieur, sous une température tropicale avec une humidité très élevée, croissent notamment des bambous géants. Dans les autres serres, se trouvent des exemplaires rares d'orchidées, de plantes carnivores, de cactus, de nénufars de l'espèce Victoria amazonica…
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jardin_botanique_et_mus%C3%A9e_botanique_de_Berlin-Dahlem</t>
+          <t>Jardin_botanique_et_musée_botanique_de_Berlin-Dahlem</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Personnalités liées au Jardin botanique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ernst Friedrich Gilg, conservateur.
 Gottfried Wilhelm Johannes Mildbraed, conservateur.
